--- a/app01班积分.xlsx
+++ b/app01班积分.xlsx
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -318,30 +318,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,12 +492,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -367,138 +499,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,145 +615,145 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5"/>
@@ -1199,9 +1199,12 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>75</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="D2" s="6">
+        <f>SUM(C2,C3,C4)</f>
+        <v>170</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="6"/>
@@ -1221,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4"/>
@@ -1243,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
@@ -1265,9 +1268,12 @@
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>61</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="D5" s="6">
+        <f>SUM(C5,C6,C7)</f>
+        <v>173</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1287,7 +1293,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="4"/>
@@ -1309,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
@@ -1331,9 +1337,12 @@
         <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>57</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="D8" s="6">
+        <f>SUM(C8,C9,C10)</f>
+        <v>149</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1353,7 +1362,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
@@ -1375,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
@@ -1397,9 +1406,12 @@
         <v>20</v>
       </c>
       <c r="C11" s="4">
-        <v>60</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="D11" s="6">
+        <f>SUM(C11,C12,C13)</f>
+        <v>96</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1419,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="4"/>
@@ -1463,9 +1475,12 @@
         <v>25</v>
       </c>
       <c r="C14" s="4">
-        <v>73</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="D14" s="6">
+        <f>SUM(C14,C15,C16)</f>
+        <v>169</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1477,7 +1492,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" ht="31.5" spans="1:14">
+    <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1485,7 +1500,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
@@ -1507,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="4">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>
@@ -1531,7 +1546,10 @@
       <c r="C17" s="4">
         <v>7</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6">
+        <f>SUM(C17,C18,C19)</f>
+        <v>12</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1697,11 +1715,11 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" ht="31.5" spans="1:2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" ht="31.5" spans="1:2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
     </row>

--- a/app01班积分.xlsx
+++ b/app01班积分.xlsx
@@ -1152,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5"/>
@@ -1199,11 +1199,11 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D2" s="6">
         <f>SUM(C2,C3,C4)</f>
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1224,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4"/>
@@ -1246,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
@@ -1268,11 +1268,11 @@
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D5" s="6">
         <f>SUM(C5,C6,C7)</f>
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1293,7 +1293,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="4"/>
@@ -1315,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="4">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
@@ -1337,11 +1337,11 @@
         <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6">
         <f>SUM(C8,C9,C10)</f>
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1362,7 +1362,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="4">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
@@ -1384,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
@@ -1406,11 +1406,11 @@
         <v>20</v>
       </c>
       <c r="C11" s="4">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D11" s="6">
         <f>SUM(C11,C12,C13)</f>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D14" s="6">
         <f>SUM(C14,C15,C16)</f>
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1500,7 +1500,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>

--- a/app01班积分.xlsx
+++ b/app01班积分.xlsx
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D17" sqref="D17:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5"/>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D14" s="6">
         <f>SUM(C14,C15,C16)</f>
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="4">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>

--- a/app01班积分.xlsx
+++ b/app01班积分.xlsx
@@ -124,9 +124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -160,6 +160,44 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,15 +227,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,9 +249,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,17 +270,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,59 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -318,6 +318,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,7 +366,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,96 +480,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,61 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,6 +509,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,31 +552,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,173 +596,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5"/>
@@ -1199,11 +1199,11 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D2" s="6">
         <f>SUM(C2,C3,C4)</f>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1337,11 +1337,11 @@
         <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" s="6">
         <f>SUM(C8,C9,C10)</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1492,7 +1492,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" ht="31.5" spans="1:14">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>

--- a/app01班积分.xlsx
+++ b/app01班积分.xlsx
@@ -124,9 +124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -161,7 +161,88 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,73 +255,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -255,13 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -301,13 +308,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -318,55 +318,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,24 +468,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -475,30 +499,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,21 +509,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,6 +536,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -562,15 +571,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,148 +612,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5"/>
@@ -1199,11 +1199,11 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D2" s="6">
         <f>SUM(C2,C3,C4)</f>
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1224,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4"/>
@@ -1246,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
@@ -1268,11 +1268,11 @@
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="6">
         <f>SUM(C5,C6,C7)</f>
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1315,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
@@ -1337,11 +1337,11 @@
         <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D8" s="6">
         <f>SUM(C8,C9,C10)</f>
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1362,7 +1362,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="4">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
@@ -1384,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="4">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
@@ -1406,11 +1406,11 @@
         <v>20</v>
       </c>
       <c r="C11" s="4">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D11" s="6">
         <f>SUM(C11,C12,C13)</f>
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1431,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="4"/>
@@ -1453,7 +1453,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="4"/>
@@ -1475,11 +1475,11 @@
         <v>25</v>
       </c>
       <c r="C14" s="4">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D14" s="6">
         <f>SUM(C14,C15,C16)</f>
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1500,7 +1500,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="4">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>

--- a/app01班积分.xlsx
+++ b/app01班积分.xlsx
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5"/>
@@ -1199,11 +1199,11 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D2" s="6">
         <f>SUM(C2,C3,C4)</f>
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1337,11 +1337,11 @@
         <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D8" s="6">
         <f>SUM(C8,C9,C10)</f>
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1475,11 +1475,11 @@
         <v>25</v>
       </c>
       <c r="C14" s="4">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D14" s="6">
         <f>SUM(C14,C15,C16)</f>
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="4">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>

--- a/app01班积分.xlsx
+++ b/app01班积分.xlsx
@@ -124,9 +124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -165,8 +165,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -202,47 +226,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,6 +274,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -269,43 +295,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -318,6 +318,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,168 +499,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,11 +536,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,21 +562,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,158 +587,167 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5"/>
@@ -1199,11 +1199,11 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D2" s="6">
         <f>SUM(C2,C3,C4)</f>
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1224,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4"/>
@@ -1268,11 +1268,11 @@
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D5" s="6">
         <f>SUM(C5,C6,C7)</f>
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1293,7 +1293,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="4"/>
@@ -1315,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="4">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
@@ -1337,11 +1337,11 @@
         <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D8" s="6">
         <f>SUM(C8,C9,C10)</f>
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1362,7 +1362,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="4">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
@@ -1384,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="4">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
@@ -1406,11 +1406,11 @@
         <v>20</v>
       </c>
       <c r="C11" s="4">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D11" s="6">
         <f>SUM(C11,C12,C13)</f>
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1431,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="4"/>
@@ -1475,11 +1475,11 @@
         <v>25</v>
       </c>
       <c r="C14" s="4">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D14" s="6">
         <f>SUM(C14,C15,C16)</f>
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="4">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>

--- a/app01班积分.xlsx
+++ b/app01班积分.xlsx
@@ -124,9 +124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -160,6 +160,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +195,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -181,33 +255,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,14 +272,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,72 +302,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -318,6 +318,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,25 +366,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,18 +486,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -409,96 +499,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +527,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -536,17 +551,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +577,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -576,184 +609,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5"/>
@@ -1199,11 +1199,11 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="6">
         <f>SUM(C2,C3,C4)</f>
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1475,11 +1475,11 @@
         <v>25</v>
       </c>
       <c r="C14" s="4">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D14" s="6">
         <f>SUM(C14,C15,C16)</f>
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>

--- a/app01班积分.xlsx
+++ b/app01班积分.xlsx
@@ -22,7 +22,7 @@
     <t>组别</t>
   </si>
   <si>
-    <t>8.15-9.15</t>
+    <t>8.15-9.30</t>
   </si>
   <si>
     <t>团队得分</t>
@@ -1152,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5"/>
@@ -1199,11 +1199,11 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D2" s="6">
         <f>SUM(C2,C3,C4)</f>
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1224,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4"/>
@@ -1246,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
@@ -1268,11 +1268,11 @@
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D5" s="6">
         <f>SUM(C5,C6,C7)</f>
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1293,7 +1293,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="4"/>
@@ -1315,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="4">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
@@ -1337,11 +1337,11 @@
         <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D8" s="6">
         <f>SUM(C8,C9,C10)</f>
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1362,7 +1362,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="4">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
@@ -1384,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="4">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
@@ -1406,11 +1406,11 @@
         <v>20</v>
       </c>
       <c r="C11" s="4">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6">
         <f>SUM(C11,C12,C13)</f>
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1431,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="4"/>
@@ -1475,11 +1475,11 @@
         <v>25</v>
       </c>
       <c r="C14" s="4">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D14" s="6">
         <f>SUM(C14,C15,C16)</f>
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1500,7 +1500,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="4">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="4">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>

--- a/app01班积分.xlsx
+++ b/app01班积分.xlsx
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5"/>
@@ -1199,11 +1199,11 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D2" s="6">
         <f>SUM(C2,C3,C4)</f>
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>

--- a/app01班积分.xlsx
+++ b/app01班积分.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>姓名</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>团队得分</t>
+  </si>
+  <si>
+    <t>10.8-11.8</t>
   </si>
   <si>
     <t>刘海东</t>
@@ -124,9 +127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -161,12 +164,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +214,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -187,16 +229,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,14 +278,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,14 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -247,67 +305,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -318,6 +321,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,25 +369,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,12 +459,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,12 +483,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,42 +502,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,21 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -551,11 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +571,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -585,175 +590,173 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,8 +1155,8 @@
   <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5"/>
@@ -1180,7 +1183,9 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1193,19 +1198,20 @@
     </row>
     <row r="2" ht="31.5" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4">
         <v>150</v>
       </c>
       <c r="D2" s="6">
-        <f>SUM(C2,C3,C4)</f>
-        <v>314</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>359</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="6"/>
       <c r="H2" s="4"/>
@@ -1218,10 +1224,10 @@
     </row>
     <row r="3" ht="31.5" spans="1:14">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4">
         <v>79</v>
@@ -1240,13 +1246,13 @@
     </row>
     <row r="4" ht="31.5" spans="1:14">
       <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" s="4">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
@@ -1262,17 +1268,17 @@
     </row>
     <row r="5" ht="31.5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D5" s="6">
         <f>SUM(C5,C6,C7)</f>
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1287,13 +1293,13 @@
     </row>
     <row r="6" ht="31.5" spans="1:14">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="4"/>
@@ -1309,13 +1315,13 @@
     </row>
     <row r="7" ht="31.5" spans="1:14">
       <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="4">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
@@ -1331,19 +1337,21 @@
     </row>
     <row r="8" ht="31.5" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D8" s="6">
         <f>SUM(C8,C9,C10)</f>
-        <v>306</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>386</v>
+      </c>
+      <c r="E8" s="4">
+        <v>40</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1356,13 +1364,13 @@
     </row>
     <row r="9" ht="31.5" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
@@ -1378,13 +1386,13 @@
     </row>
     <row r="10" ht="31.5" spans="1:14">
       <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" s="4">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
@@ -1400,17 +1408,17 @@
     </row>
     <row r="11" ht="31.5" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4">
         <v>90</v>
       </c>
       <c r="D11" s="6">
         <f>SUM(C11,C12,C13)</f>
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1425,13 +1433,13 @@
     </row>
     <row r="12" ht="31.5" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="4"/>
@@ -1447,10 +1455,10 @@
     </row>
     <row r="13" ht="31.5" spans="1:14">
       <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C13" s="4">
         <v>18</v>
@@ -1469,17 +1477,17 @@
     </row>
     <row r="14" ht="31.5" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4">
         <v>130</v>
       </c>
       <c r="D14" s="6">
         <f>SUM(C14,C15,C16)</f>
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1494,13 +1502,13 @@
     </row>
     <row r="15" ht="31.5" spans="1:14">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
@@ -1516,10 +1524,10 @@
     </row>
     <row r="16" ht="31.5" spans="1:14">
       <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="C16" s="4">
         <v>135</v>
@@ -1538,10 +1546,10 @@
     </row>
     <row r="17" ht="31.5" spans="1:14">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4">
         <v>7</v>
@@ -1563,10 +1571,10 @@
     </row>
     <row r="18" ht="31.5" spans="1:14">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
@@ -1583,10 +1591,10 @@
     </row>
     <row r="19" ht="31.5" spans="1:14">
       <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>

--- a/app01班积分.xlsx
+++ b/app01班积分.xlsx
@@ -127,9 +127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1155,8 +1155,8 @@
   <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5"/>
@@ -1207,7 +1207,7 @@
         <v>150</v>
       </c>
       <c r="D2" s="6">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="E2" s="4">
         <v>45</v>
@@ -1230,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D8" s="6">
         <f>SUM(C8,C9,C10)</f>
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="E8" s="4">
         <v>40</v>
@@ -1370,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="4">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
@@ -1392,10 +1392,12 @@
         <v>18</v>
       </c>
       <c r="C10" s="4">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1487,7 +1489,7 @@
       </c>
       <c r="D14" s="6">
         <f>SUM(C14,C15,C16)</f>
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1530,7 +1532,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="4">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>

--- a/app01班积分.xlsx
+++ b/app01班积分.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>姓名</t>
   </si>
@@ -28,7 +28,10 @@
     <t>团队得分</t>
   </si>
   <si>
-    <t>10.8-11.8</t>
+    <t>10.8-11.30</t>
+  </si>
+  <si>
+    <t>个人总分</t>
   </si>
   <si>
     <t>刘海东</t>
@@ -1155,8 +1158,8 @@
   <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="61.5"/>
@@ -1186,7 +1189,9 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1198,10 +1203,10 @@
     </row>
     <row r="2" ht="31.5" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4">
         <v>150</v>
@@ -1210,9 +1215,12 @@
         <v>421</v>
       </c>
       <c r="E2" s="4">
-        <v>45</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="F2" s="4">
+        <f>SUM(C2,E2)</f>
+        <v>278</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1224,17 +1232,22 @@
     </row>
     <row r="3" ht="31.5" spans="1:14">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4">
         <v>141</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4">
+        <v>51</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SUM(C3,E3)</f>
+        <v>192</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1246,17 +1259,22 @@
     </row>
     <row r="4" ht="31.5" spans="1:14">
       <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>130</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F11" si="0">SUM(C4,E4)</f>
+        <v>162</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1268,10 +1286,10 @@
     </row>
     <row r="5" ht="31.5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>106</v>
@@ -1280,8 +1298,13 @@
         <f>SUM(C5,C6,C7)</f>
         <v>312</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4">
+        <v>80</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1293,17 +1316,22 @@
     </row>
     <row r="6" ht="31.5" spans="1:14">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4">
         <v>90</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1315,17 +1343,22 @@
     </row>
     <row r="7" ht="31.5" spans="1:14">
       <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="4">
         <v>116</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4">
+        <v>78</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1337,10 +1370,10 @@
     </row>
     <row r="8" ht="31.5" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4">
         <v>150</v>
@@ -1350,9 +1383,12 @@
         <v>443</v>
       </c>
       <c r="E8" s="4">
-        <v>40</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1364,17 +1400,22 @@
     </row>
     <row r="9" ht="31.5" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4">
         <v>143</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="4">
+        <v>83</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1386,19 +1427,22 @@
     </row>
     <row r="10" ht="31.5" spans="1:14">
       <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C10" s="4">
         <v>150</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1410,10 +1454,10 @@
     </row>
     <row r="11" ht="31.5" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4">
         <v>90</v>
@@ -1422,8 +1466,13 @@
         <f>SUM(C11,C12,C13)</f>
         <v>222</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="4">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1435,17 +1484,22 @@
     </row>
     <row r="12" ht="31.5" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4">
         <v>114</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="4">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ref="F12:F19" si="1">SUM(C12,E12)</f>
+        <v>176</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1457,17 +1511,22 @@
     </row>
     <row r="13" ht="31.5" spans="1:14">
       <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="C13" s="4">
         <v>18</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="4">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1479,10 +1538,10 @@
     </row>
     <row r="14" ht="31.5" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4">
         <v>130</v>
@@ -1491,8 +1550,13 @@
         <f>SUM(C14,C15,C16)</f>
         <v>320</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="4">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1504,17 +1568,22 @@
     </row>
     <row r="15" ht="31.5" spans="1:14">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4">
         <v>40</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="4">
+        <v>59</v>
+      </c>
+      <c r="F15" s="4">
+        <f>SUM(C15,E15)</f>
+        <v>99</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1526,17 +1595,22 @@
     </row>
     <row r="16" ht="31.5" spans="1:14">
       <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C16" s="4">
         <v>150</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="4">
+        <v>95</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1548,10 +1622,10 @@
     </row>
     <row r="17" ht="31.5" spans="1:14">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4">
         <v>7</v>
@@ -1560,8 +1634,13 @@
         <f>SUM(C17,C18,C19)</f>
         <v>12</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="4">
+        <v>49</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1573,15 +1652,18 @@
     </row>
     <row r="18" ht="31.5" spans="1:14">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1593,17 +1675,22 @@
     </row>
     <row r="19" ht="31.5" spans="1:14">
       <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="4">
+        <v>60</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
